--- a/graph2_China.xlsx
+++ b/graph2_China.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RDankar\OneDrive - International Renewable Energy Agency - IRENA\Desktop\cost model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1B47CFF-0A4F-4A54-A5AF-6F03EEEA6C4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{F1B47CFF-0A4F-4A54-A5AF-6F03EEEA6C4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77F54A61-F4EF-4368-8424-EF44B1104C4E}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{FDF89CBC-2F52-4F36-BE7A-0403457D8151}"/>
   </bookViews>
@@ -41,103 +41,90 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="21">
   <si>
-    <t>All domestic</t>
-  </si>
-  <si>
-    <t>Imported Polysilicon</t>
-  </si>
-  <si>
-    <t>Imported Wafer</t>
-  </si>
-  <si>
-    <t>Imported Cell</t>
-  </si>
-  <si>
-    <t>Polysilicon</t>
-  </si>
-  <si>
-    <t>Wafer</t>
-  </si>
-  <si>
-    <t>Cell Cost</t>
-  </si>
-  <si>
-    <t>Overheads</t>
-  </si>
-  <si>
-    <t>Electricity</t>
-  </si>
-  <si>
-    <t>Building and facilities</t>
-  </si>
-  <si>
-    <t>Equipment depreciation</t>
-  </si>
-  <si>
-    <t>Maintenance</t>
-  </si>
-  <si>
-    <t>Labour</t>
-  </si>
-  <si>
-    <t>Other material</t>
-  </si>
-  <si>
-    <t>ESG Certification</t>
-  </si>
-  <si>
-    <t>Operating profits</t>
-  </si>
-  <si>
-    <t>total</t>
-  </si>
-  <si>
     <t>**2025 PV Production Costs in Australia across different scenarios**
 This scenario illustrates the cost of final PV modules across 3 different scenarios:
 1) domestic manufacturing, 
 2) imported wafers from China, 
 3) imported cell from China.
-The panel assembly is done domestically. The following assumptions apply: 
-**-Technology:** TopCon 
-**- Production capacity:** 4 GW for wafer, cell and panel assembly
-**-  Wafers:** produced domestically or imported from China
-**-  Cell:** produced domestically or imported from China</t>
-  </si>
-  <si>
-    <t>**2025 PV Production Costs in Germany across different scenarios**
+The panel assembly is done domestically. The production capacity considered is 4 GW for wafer, cell and panel assembly.</t>
+  </si>
+  <si>
+    <t>All domestic</t>
+  </si>
+  <si>
+    <t>Imported Polysilicon</t>
+  </si>
+  <si>
+    <t>Imported Wafer</t>
+  </si>
+  <si>
+    <t>Imported Cell</t>
+  </si>
+  <si>
+    <t>Polysilicon</t>
+  </si>
+  <si>
+    <t>Wafer</t>
+  </si>
+  <si>
+    <t>Cell Cost</t>
+  </si>
+  <si>
+    <t>Overheads</t>
+  </si>
+  <si>
+    <t>Electricity</t>
+  </si>
+  <si>
+    <t>Building and facilities</t>
+  </si>
+  <si>
+    <t>Equipment depreciation</t>
+  </si>
+  <si>
+    <t>Maintenance</t>
+  </si>
+  <si>
+    <t>Labour</t>
+  </si>
+  <si>
+    <t>Other material</t>
+  </si>
+  <si>
+    <t>ESG Certification</t>
+  </si>
+  <si>
+    <t>Operating profits</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**2025 PV Production Costs in Germany across different scenarios**
 This scenario illustrates the cost of final PV modules across 3 different scenarios:
 1) domestic manufacturing,
 2) imported wafers from China,
 3) imported cell from China.
-The panel assembly is done domestically. The following assumptions apply: 
- **-Technology:** TopCon
-**- Production capacity:** 4 GW for wafer, cell and panel assembly
-**-  Wafers:** produced domestically or imported from China
-**-  Cell:** produced domestically or imported from China</t>
-  </si>
-  <si>
-    <t>**2025 PV Production Costs in India across different scenarios**
+The panel assembly is done domestically. The production capacity considered is 4 GW for wafer, cell and panel assembly.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**2025 PV Production Costs in India across different scenarios**
 This scenario illustrates the cost of final PV modules across 3 different scenarios :
 1) domestic manufacturing, 
 2) imported wafers from China,
 3) imported cell from China.
-The panel assembly is done domestically. The following assumptions apply:
- **-Technology:** TopCon 
-**- Production capacity:** 4 GW for wafer, cell and panel assembly
-**-  Wafers:** produced domestically or imported from China
-**-  Cell:** produced domestically or imported from China</t>
-  </si>
-  <si>
-    <t>**2025 PV Production Costs in Vietnam across different scenarios**
+The panel assembly is done domestically. The production capacity considered is 4 GW for wafer, cell and panel assembly.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**2025 PV Production Costs in Vietnam across different scenarios**
 This scenario illustrates the cost of final PV modules across 3 different scenarios :
 1) domestic manufacturing,
 2) imported wafers from China,
 3) imported cell from China. 
-The panel assembly is done domestically. The following assumptions apply: 
-**- Technology:** TopCon
-**- Production capacity:** 4 GW for wafer, cell and panel assembly
-**-  Wafers:** produced domestically or imported from China
-**-  Cell:** produced domestically or imported from China</t>
+The panel assembly is done domestically. The production capacity considered is 4 GW for wafer, cell and panel assembly.
+</t>
   </si>
 </sst>
 </file>
@@ -148,7 +135,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -529,9 +516,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC885454-073A-4BD8-A224-50BCC5A93AB1}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="56.85546875" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
@@ -540,28 +529,28 @@
     <col min="5" max="5" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="300" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="159">
       <c r="A1" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="B2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1">
         <v>3.1006450649999996E-2</v>
@@ -576,9 +565,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1">
         <v>5.505790583904191E-2</v>
@@ -593,9 +582,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1">
         <v>6.39691097334808E-2</v>
@@ -610,9 +599,9 @@
         <v>4.1254375208919496E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6" s="1">
         <v>8.7807330000000006E-3</v>
@@ -627,9 +616,9 @@
         <v>8.7807330000000006E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7" s="1">
         <v>2.2499999999999998E-3</v>
@@ -644,9 +633,9 @@
         <v>2.2499999999999998E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B8" s="1">
         <v>1.5E-3</v>
@@ -661,9 +650,9 @@
         <v>1.5E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9" s="1">
         <v>4.0000000000000001E-3</v>
@@ -678,9 +667,9 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B10" s="1">
         <v>2E-3</v>
@@ -695,9 +684,9 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B11" s="1">
         <v>1.7687999999999999E-2</v>
@@ -712,9 +701,9 @@
         <v>1.7687999999999999E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B12" s="1">
         <v>5.5E-2</v>
@@ -729,9 +718,9 @@
         <v>5.5E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B13" s="1">
         <v>2.3999999999999998E-3</v>
@@ -746,9 +735,9 @@
         <v>2.3999999999999998E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B14" s="1">
         <v>1.27257E-2</v>
@@ -763,9 +752,9 @@
         <v>1.27257E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B15" s="4">
         <f>SUM(B3:B14)</f>
@@ -793,11 +782,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1379C286-0097-4E88-B1F0-9A36D4453C5A}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="57.5703125" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
@@ -806,28 +793,28 @@
     <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="300" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="174">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="B2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1">
         <v>4.0372351949999996E-2</v>
@@ -842,9 +829,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1">
         <v>6.5019114910684558E-2</v>
@@ -859,9 +846,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1">
         <v>6.9747744733480804E-2</v>
@@ -876,9 +863,9 @@
         <v>4.1457463072852953E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6" s="1">
         <v>8.9589600000000002E-3</v>
@@ -893,9 +880,9 @@
         <v>8.9589600000000002E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7" s="1">
         <v>4.4999999999999997E-3</v>
@@ -910,9 +897,9 @@
         <v>4.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B8" s="1">
         <v>1.5E-3</v>
@@ -927,9 +914,9 @@
         <v>1.5E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9" s="1">
         <v>4.0000000000000001E-3</v>
@@ -944,9 +931,9 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B10" s="1">
         <v>2E-3</v>
@@ -961,9 +948,9 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B11" s="1">
         <v>1.7159999999999998E-2</v>
@@ -978,9 +965,9 @@
         <v>1.7159999999999998E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B12" s="1">
         <v>5.5E-2</v>
@@ -995,9 +982,9 @@
         <v>5.5E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B13" s="1">
         <v>2.3999999999999998E-3</v>
@@ -1012,9 +999,9 @@
         <v>2.3999999999999998E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B14" s="1">
         <v>1.2983999999999999E-2</v>
@@ -1029,9 +1016,9 @@
         <v>1.2983999999999999E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B15" s="4">
         <f>SUM(B3:B14)</f>
@@ -1060,10 +1047,10 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="60.140625" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
@@ -1072,28 +1059,28 @@
     <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="285" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="159">
       <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="B2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1">
         <v>2.6588051174999999E-2</v>
@@ -1108,9 +1095,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1">
         <v>3.7037072672387136E-2</v>
@@ -1125,9 +1112,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1">
         <v>4.2913443483480793E-2</v>
@@ -1142,9 +1129,9 @@
         <v>4.120563412157547E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6" s="1">
         <v>6.996496500000002E-3</v>
@@ -1159,9 +1146,9 @@
         <v>6.996496500000002E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7" s="1">
         <v>2.3750000000000004E-3</v>
@@ -1176,9 +1163,9 @@
         <v>2.3750000000000004E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B8" s="1">
         <v>1.1000000000000001E-3</v>
@@ -1193,9 +1180,9 @@
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9" s="1">
         <v>3.0000000000000001E-3</v>
@@ -1210,9 +1197,9 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B10" s="1">
         <v>1.48E-3</v>
@@ -1227,9 +1214,9 @@
         <v>1.48E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B11" s="1">
         <v>2.2439999999999999E-3</v>
@@ -1244,9 +1231,9 @@
         <v>2.2439999999999999E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B12" s="1">
         <v>5.5E-2</v>
@@ -1261,9 +1248,9 @@
         <v>5.5E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B13" s="1">
         <v>2.3999999999999998E-3</v>
@@ -1278,9 +1265,9 @@
         <v>2.3999999999999998E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B14" s="1">
         <v>1.0139850000000001E-2</v>
@@ -1295,9 +1282,9 @@
         <v>1.0139850000000001E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B15" s="4">
         <f>SUM(B3:B14)</f>
@@ -1325,11 +1312,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B199397F-EDD0-4D2E-809E-36583B346B5C}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="58.42578125" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
@@ -1338,28 +1325,28 @@
     <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="300" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="174">
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="B2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1">
         <v>2.3377900350000001E-2</v>
@@ -1374,9 +1361,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1">
         <v>3.3126947791375289E-2</v>
@@ -1391,9 +1378,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1">
         <v>4.0165144733480804E-2</v>
@@ -1408,9 +1395,9 @@
         <v>4.1161767142965842E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6" s="1">
         <v>6.8771609999999997E-3</v>
@@ -1425,9 +1412,9 @@
         <v>6.8771609999999997E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7" s="1">
         <v>1.7500000000000003E-3</v>
@@ -1442,9 +1429,9 @@
         <v>1.7500000000000003E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B8" s="1">
         <v>1E-3</v>
@@ -1459,9 +1446,9 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9" s="1">
         <v>2.5999999999999999E-3</v>
@@ -1476,9 +1463,9 @@
         <v>2.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B10" s="1">
         <v>1.32E-3</v>
@@ -1493,9 +1480,9 @@
         <v>1.32E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B11" s="1">
         <v>2.3759999999999996E-3</v>
@@ -1510,9 +1497,9 @@
         <v>2.3759999999999996E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B12" s="1">
         <v>5.5E-2</v>
@@ -1527,9 +1514,9 @@
         <v>5.5E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B13" s="1">
         <v>2.3999999999999998E-3</v>
@@ -1544,9 +1531,9 @@
         <v>2.3999999999999998E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B14" s="1">
         <v>9.9669000000000008E-3</v>
@@ -1561,9 +1548,9 @@
         <v>9.9669000000000008E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B15" s="4">
         <f>SUM(B3:B14)</f>
@@ -1843,39 +1830,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1BF92100-C8F1-4100-8F3F-2B7D91B37A12}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="ba5b49d0-d563-40a1-b879-461d939a825e"/>
-    <ds:schemaRef ds:uri="b7f5957c-7da5-4c27-85eb-7459e8edadbc"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1BF92100-C8F1-4100-8F3F-2B7D91B37A12}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9DF8D6F7-3128-485C-92B3-D60ACB5ABA41}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9DF8D6F7-3128-485C-92B3-D60ACB5ABA41}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B14D70FD-ABE4-4143-BB1F-DC92342E6446}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="b7f5957c-7da5-4c27-85eb-7459e8edadbc"/>
-    <ds:schemaRef ds:uri="ba5b49d0-d563-40a1-b879-461d939a825e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B14D70FD-ABE4-4143-BB1F-DC92342E6446}"/>
 </file>
--- a/graph2_China.xlsx
+++ b/graph2_China.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RDankar\OneDrive - International Renewable Energy Agency - IRENA\Desktop\cost model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{F1B47CFF-0A4F-4A54-A5AF-6F03EEEA6C4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77F54A61-F4EF-4368-8424-EF44B1104C4E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79A9C37A-0158-4819-BAD4-19F3DC54A209}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{FDF89CBC-2F52-4F36-BE7A-0403457D8151}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FDF89CBC-2F52-4F36-BE7A-0403457D8151}"/>
   </bookViews>
   <sheets>
     <sheet name="Australia" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="20">
   <si>
     <t>**2025 PV Production Costs in Australia across different scenarios**
 This scenario illustrates the cost of final PV modules across 3 different scenarios:
@@ -95,9 +95,6 @@
   </si>
   <si>
     <t>Operating profits</t>
-  </si>
-  <si>
-    <t>total</t>
   </si>
   <si>
     <t xml:space="preserve">**2025 PV Production Costs in Germany across different scenarios**
@@ -135,16 +132,8 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -172,14 +161,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -514,13 +502,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC885454-073A-4BD8-A224-50BCC5A93AB1}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="56.85546875" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
@@ -529,12 +517,12 @@
     <col min="5" max="5" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="159">
+    <row r="1" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -548,7 +536,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -565,7 +553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -582,7 +570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -599,7 +587,7 @@
         <v>4.1254375208919496E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -616,7 +604,7 @@
         <v>8.7807330000000006E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
@@ -633,7 +621,7 @@
         <v>2.2499999999999998E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -650,7 +638,7 @@
         <v>1.5E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -667,7 +655,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -684,7 +672,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -701,7 +689,7 @@
         <v>1.7687999999999999E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -718,7 +706,7 @@
         <v>5.5E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
@@ -735,7 +723,7 @@
         <v>2.3999999999999998E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -750,27 +738,6 @@
       </c>
       <c r="E14" s="1">
         <v>1.27257E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="4">
-        <f>SUM(B3:B14)</f>
-        <v>0.25637789922252274</v>
-      </c>
-      <c r="C15" s="4">
-        <f t="shared" ref="C15:E15" si="0">SUM(C3:C14)</f>
-        <v>0.23637690241867659</v>
-      </c>
-      <c r="D15" s="4">
-        <f t="shared" si="0"/>
-        <v>0.19305561628485512</v>
-      </c>
-      <c r="E15" s="4">
-        <f t="shared" si="0"/>
-        <v>0.14759880820891952</v>
       </c>
     </row>
   </sheetData>
@@ -780,11 +747,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1379C286-0097-4E88-B1F0-9A36D4453C5A}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:XFD15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="57.5703125" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
@@ -793,12 +762,12 @@
     <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="174">
+    <row r="1" spans="1:5" ht="195" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -812,7 +781,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -829,7 +798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -846,7 +815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -863,7 +832,7 @@
         <v>4.1457463072852953E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -880,7 +849,7 @@
         <v>8.9589600000000002E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
@@ -897,7 +866,7 @@
         <v>4.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -914,7 +883,7 @@
         <v>1.5E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -931,7 +900,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -948,7 +917,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -965,7 +934,7 @@
         <v>1.7159999999999998E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -982,7 +951,7 @@
         <v>5.5E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
@@ -999,7 +968,7 @@
         <v>2.3999999999999998E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -1014,27 +983,6 @@
       </c>
       <c r="E14" s="1">
         <v>1.2983999999999999E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="4">
-        <f>SUM(B3:B14)</f>
-        <v>0.28364217159416538</v>
-      </c>
-      <c r="C15" s="4">
-        <f t="shared" ref="C15:E15" si="0">SUM(C3:C14)</f>
-        <v>0.25462863887493464</v>
-      </c>
-      <c r="D15" s="4">
-        <f t="shared" si="0"/>
-        <v>0.20119586614878857</v>
-      </c>
-      <c r="E15" s="4">
-        <f t="shared" si="0"/>
-        <v>0.14996042307285296</v>
       </c>
     </row>
   </sheetData>
@@ -1044,13 +992,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42E9D1A1-161C-4F45-BBA8-EB1170E17378}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="60.140625" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
@@ -1059,12 +1007,12 @@
     <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="159">
+    <row r="1" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -1078,7 +1026,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1095,7 +1043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1112,7 +1060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1129,7 +1077,7 @@
         <v>4.120563412157547E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1146,7 +1094,7 @@
         <v>6.996496500000002E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1163,7 +1111,7 @@
         <v>2.3750000000000004E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1180,7 +1128,7 @@
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1197,7 +1145,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1214,7 +1162,7 @@
         <v>1.48E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1231,7 +1179,7 @@
         <v>2.2439999999999999E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1248,7 +1196,7 @@
         <v>5.5E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -1265,7 +1213,7 @@
         <v>2.3999999999999998E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -1280,27 +1228,6 @@
       </c>
       <c r="E14" s="1">
         <v>1.0139850000000001E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="4">
-        <f>SUM(B3:B14)</f>
-        <v>0.19127391383086795</v>
-      </c>
-      <c r="C15" s="4">
-        <f t="shared" ref="C15:E15" si="0">SUM(C3:C14)</f>
-        <v>0.1756065088097141</v>
-      </c>
-      <c r="D15" s="4">
-        <f t="shared" si="0"/>
-        <v>0.15034212244751108</v>
-      </c>
-      <c r="E15" s="4">
-        <f t="shared" si="0"/>
-        <v>0.12594098062157547</v>
       </c>
     </row>
   </sheetData>
@@ -1310,13 +1237,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B199397F-EDD0-4D2E-809E-36583B346B5C}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="58.42578125" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
@@ -1325,12 +1252,12 @@
     <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="174">
+    <row r="1" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -1344,7 +1271,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1361,7 +1288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1378,7 +1305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1395,7 +1322,7 @@
         <v>4.1161767142965842E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -1412,7 +1339,7 @@
         <v>6.8771609999999997E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
@@ -1429,7 +1356,7 @@
         <v>1.7500000000000003E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -1446,7 +1373,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -1463,7 +1390,7 @@
         <v>2.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -1480,7 +1407,7 @@
         <v>1.32E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -1497,7 +1424,7 @@
         <v>2.3759999999999996E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -1514,7 +1441,7 @@
         <v>5.5E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
@@ -1531,7 +1458,7 @@
         <v>2.3999999999999998E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -1546,27 +1473,6 @@
       </c>
       <c r="E14" s="1">
         <v>9.9669000000000008E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="4">
-        <f>SUM(B3:B14)</f>
-        <v>0.17996005387485611</v>
-      </c>
-      <c r="C15" s="4">
-        <f t="shared" ref="C15:E15" si="0">SUM(C3:C14)</f>
-        <v>0.16742647275562536</v>
-      </c>
-      <c r="D15" s="4">
-        <f t="shared" si="0"/>
-        <v>0.14610467121890147</v>
-      </c>
-      <c r="E15" s="4">
-        <f t="shared" si="0"/>
-        <v>0.12445182814296583</v>
       </c>
     </row>
   </sheetData>
@@ -1575,26 +1481,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="ba5b49d0-d563-40a1-b879-461d939a825e" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b7f5957c-7da5-4c27-85eb-7459e8edadbc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010033005BA1203B7F46A77A330CF32A946D" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3ee0c272a4f4272e6ff07dee5e58e90f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b7f5957c-7da5-4c27-85eb-7459e8edadbc" xmlns:ns3="ba5b49d0-d563-40a1-b879-461d939a825e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f25b1570ae68bdd22d432fabd6d0aa94" ns2:_="" ns3:_="">
     <xsd:import namespace="b7f5957c-7da5-4c27-85eb-7459e8edadbc"/>
@@ -1829,14 +1715,60 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="ba5b49d0-d563-40a1-b879-461d939a825e" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b7f5957c-7da5-4c27-85eb-7459e8edadbc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1BF92100-C8F1-4100-8F3F-2B7D91B37A12}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B14D70FD-ABE4-4143-BB1F-DC92342E6446}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="b7f5957c-7da5-4c27-85eb-7459e8edadbc"/>
+    <ds:schemaRef ds:uri="ba5b49d0-d563-40a1-b879-461d939a825e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9DF8D6F7-3128-485C-92B3-D60ACB5ABA41}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9DF8D6F7-3128-485C-92B3-D60ACB5ABA41}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B14D70FD-ABE4-4143-BB1F-DC92342E6446}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1BF92100-C8F1-4100-8F3F-2B7D91B37A12}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="ba5b49d0-d563-40a1-b879-461d939a825e"/>
+    <ds:schemaRef ds:uri="b7f5957c-7da5-4c27-85eb-7459e8edadbc"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/graph2_China.xlsx
+++ b/graph2_China.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RDankar\OneDrive - International Renewable Energy Agency - IRENA\Desktop\cost model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79A9C37A-0158-4819-BAD4-19F3DC54A209}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50A729CE-0D86-4704-AFDB-3CFB8B263859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FDF89CBC-2F52-4F36-BE7A-0403457D8151}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{FDF89CBC-2F52-4F36-BE7A-0403457D8151}"/>
   </bookViews>
   <sheets>
     <sheet name="Australia" sheetId="2" r:id="rId1"/>
@@ -64,10 +64,13 @@
     <t>Polysilicon</t>
   </si>
   <si>
-    <t>Wafer</t>
-  </si>
-  <si>
-    <t>Cell Cost</t>
+    <t>Wafer (excl. polysilicon)</t>
+  </si>
+  <si>
+    <t>Cell Cost (excl. wafer)</t>
+  </si>
+  <si>
+    <t>Other material (e.g. front and back glass, encapsulant and others)</t>
   </si>
   <si>
     <t>Overheads</t>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Labour</t>
-  </si>
-  <si>
-    <t>Other material</t>
   </si>
   <si>
     <t>ESG Certification</t>
@@ -504,16 +504,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC885454-073A-4BD8-A224-50BCC5A93AB1}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="56.85546875" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" customWidth="1"/>
     <col min="3" max="3" width="17.85546875" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -592,50 +592,50 @@
         <v>8</v>
       </c>
       <c r="B6" s="1">
+        <v>5.5E-2</v>
+      </c>
+      <c r="C6" s="1">
+        <v>5.5E-2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>5.5E-2</v>
+      </c>
+      <c r="E6" s="1">
+        <v>5.5E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1">
         <v>8.7807330000000006E-3</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C7" s="1">
         <v>8.7807330000000006E-3</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D7" s="1">
         <v>8.7807330000000006E-3</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E7" s="1">
         <v>8.7807330000000006E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="1">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1">
         <v>2.2499999999999998E-3</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C8" s="1">
         <v>2.2499999999999998E-3</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D8" s="1">
         <v>2.2499999999999998E-3</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E8" s="1">
         <v>2.2499999999999998E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="1">
-        <v>1.5E-3</v>
-      </c>
-      <c r="C8" s="1">
-        <v>1.5E-3</v>
-      </c>
-      <c r="D8" s="1">
-        <v>1.5E-3</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1.5E-3</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -643,16 +643,16 @@
         <v>11</v>
       </c>
       <c r="B9" s="1">
-        <v>4.0000000000000001E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="C9" s="1">
-        <v>4.0000000000000001E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="D9" s="1">
-        <v>4.0000000000000001E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="E9" s="1">
-        <v>4.0000000000000001E-3</v>
+        <v>1.5E-3</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -660,16 +660,16 @@
         <v>12</v>
       </c>
       <c r="B10" s="1">
-        <v>2E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="C10" s="1">
-        <v>2E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="D10" s="1">
-        <v>2E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="E10" s="1">
-        <v>2E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -677,16 +677,16 @@
         <v>13</v>
       </c>
       <c r="B11" s="1">
-        <v>1.7687999999999999E-2</v>
+        <v>2E-3</v>
       </c>
       <c r="C11" s="1">
-        <v>1.7687999999999999E-2</v>
+        <v>2E-3</v>
       </c>
       <c r="D11" s="1">
-        <v>1.7687999999999999E-2</v>
+        <v>2E-3</v>
       </c>
       <c r="E11" s="1">
-        <v>1.7687999999999999E-2</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -694,16 +694,16 @@
         <v>14</v>
       </c>
       <c r="B12" s="1">
-        <v>5.5E-2</v>
+        <v>1.7687999999999999E-2</v>
       </c>
       <c r="C12" s="1">
-        <v>5.5E-2</v>
+        <v>1.7687999999999999E-2</v>
       </c>
       <c r="D12" s="1">
-        <v>5.5E-2</v>
+        <v>1.7687999999999999E-2</v>
       </c>
       <c r="E12" s="1">
-        <v>5.5E-2</v>
+        <v>1.7687999999999999E-2</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -837,50 +837,50 @@
         <v>8</v>
       </c>
       <c r="B6" s="1">
+        <v>5.5E-2</v>
+      </c>
+      <c r="C6" s="1">
+        <v>5.5E-2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>5.5E-2</v>
+      </c>
+      <c r="E6" s="1">
+        <v>5.5E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1">
         <v>8.9589600000000002E-3</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C7" s="1">
         <v>8.9589600000000002E-3</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D7" s="1">
         <v>8.9589600000000002E-3</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E7" s="1">
         <v>8.9589600000000002E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="1">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1">
         <v>4.4999999999999997E-3</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C8" s="1">
         <v>4.4999999999999997E-3</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D8" s="1">
         <v>4.4999999999999997E-3</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E8" s="1">
         <v>4.4999999999999997E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="1">
-        <v>1.5E-3</v>
-      </c>
-      <c r="C8" s="1">
-        <v>1.5E-3</v>
-      </c>
-      <c r="D8" s="1">
-        <v>1.5E-3</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1.5E-3</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -888,16 +888,16 @@
         <v>11</v>
       </c>
       <c r="B9" s="1">
-        <v>4.0000000000000001E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="C9" s="1">
-        <v>4.0000000000000001E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="D9" s="1">
-        <v>4.0000000000000001E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="E9" s="1">
-        <v>4.0000000000000001E-3</v>
+        <v>1.5E-3</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -905,16 +905,16 @@
         <v>12</v>
       </c>
       <c r="B10" s="1">
-        <v>2E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="C10" s="1">
-        <v>2E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="D10" s="1">
-        <v>2E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="E10" s="1">
-        <v>2E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -922,16 +922,16 @@
         <v>13</v>
       </c>
       <c r="B11" s="1">
-        <v>1.7159999999999998E-2</v>
+        <v>2E-3</v>
       </c>
       <c r="C11" s="1">
-        <v>1.7159999999999998E-2</v>
+        <v>2E-3</v>
       </c>
       <c r="D11" s="1">
-        <v>1.7159999999999998E-2</v>
+        <v>2E-3</v>
       </c>
       <c r="E11" s="1">
-        <v>1.7159999999999998E-2</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -939,16 +939,16 @@
         <v>14</v>
       </c>
       <c r="B12" s="1">
-        <v>5.5E-2</v>
+        <v>1.7159999999999998E-2</v>
       </c>
       <c r="C12" s="1">
-        <v>5.5E-2</v>
+        <v>1.7159999999999998E-2</v>
       </c>
       <c r="D12" s="1">
-        <v>5.5E-2</v>
+        <v>1.7159999999999998E-2</v>
       </c>
       <c r="E12" s="1">
-        <v>5.5E-2</v>
+        <v>1.7159999999999998E-2</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -994,7 +994,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42E9D1A1-161C-4F45-BBA8-EB1170E17378}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
@@ -1078,20 +1078,20 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="1">
-        <v>6.996496500000002E-3</v>
+        <v>5.5E-2</v>
       </c>
       <c r="C6" s="1">
-        <v>6.996496500000002E-3</v>
+        <v>5.5E-2</v>
       </c>
       <c r="D6" s="1">
-        <v>6.996496500000002E-3</v>
+        <v>5.5E-2</v>
       </c>
       <c r="E6" s="1">
-        <v>6.996496500000002E-3</v>
+        <v>5.5E-2</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1099,16 +1099,16 @@
         <v>9</v>
       </c>
       <c r="B7" s="1">
-        <v>2.3750000000000004E-3</v>
+        <v>6.996496500000002E-3</v>
       </c>
       <c r="C7" s="1">
-        <v>2.3750000000000004E-3</v>
+        <v>6.996496500000002E-3</v>
       </c>
       <c r="D7" s="1">
-        <v>2.3750000000000004E-3</v>
+        <v>6.996496500000002E-3</v>
       </c>
       <c r="E7" s="1">
-        <v>2.3750000000000004E-3</v>
+        <v>6.996496500000002E-3</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1116,16 +1116,16 @@
         <v>10</v>
       </c>
       <c r="B8" s="1">
-        <v>1.1000000000000001E-3</v>
+        <v>2.3750000000000004E-3</v>
       </c>
       <c r="C8" s="1">
-        <v>1.1000000000000001E-3</v>
+        <v>2.3750000000000004E-3</v>
       </c>
       <c r="D8" s="1">
-        <v>1.1000000000000001E-3</v>
+        <v>2.3750000000000004E-3</v>
       </c>
       <c r="E8" s="1">
-        <v>1.1000000000000001E-3</v>
+        <v>2.3750000000000004E-3</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1133,16 +1133,16 @@
         <v>11</v>
       </c>
       <c r="B9" s="1">
-        <v>3.0000000000000001E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="C9" s="1">
-        <v>3.0000000000000001E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="D9" s="1">
-        <v>3.0000000000000001E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="E9" s="1">
-        <v>3.0000000000000001E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1150,16 +1150,16 @@
         <v>12</v>
       </c>
       <c r="B10" s="1">
-        <v>1.48E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="C10" s="1">
-        <v>1.48E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="D10" s="1">
-        <v>1.48E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="E10" s="1">
-        <v>1.48E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1167,16 +1167,16 @@
         <v>13</v>
       </c>
       <c r="B11" s="1">
-        <v>2.2439999999999999E-3</v>
+        <v>1.48E-3</v>
       </c>
       <c r="C11" s="1">
-        <v>2.2439999999999999E-3</v>
+        <v>1.48E-3</v>
       </c>
       <c r="D11" s="1">
-        <v>2.2439999999999999E-3</v>
+        <v>1.48E-3</v>
       </c>
       <c r="E11" s="1">
-        <v>2.2439999999999999E-3</v>
+        <v>1.48E-3</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1184,16 +1184,16 @@
         <v>14</v>
       </c>
       <c r="B12" s="1">
-        <v>5.5E-2</v>
+        <v>2.2439999999999999E-3</v>
       </c>
       <c r="C12" s="1">
-        <v>5.5E-2</v>
+        <v>2.2439999999999999E-3</v>
       </c>
       <c r="D12" s="1">
-        <v>5.5E-2</v>
+        <v>2.2439999999999999E-3</v>
       </c>
       <c r="E12" s="1">
-        <v>5.5E-2</v>
+        <v>2.2439999999999999E-3</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1239,7 +1239,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B199397F-EDD0-4D2E-809E-36583B346B5C}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
       <selection activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
@@ -1327,50 +1327,50 @@
         <v>8</v>
       </c>
       <c r="B6" s="1">
+        <v>5.5E-2</v>
+      </c>
+      <c r="C6" s="1">
+        <v>5.5E-2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>5.5E-2</v>
+      </c>
+      <c r="E6" s="1">
+        <v>5.5E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1">
         <v>6.8771609999999997E-3</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C7" s="1">
         <v>6.8771609999999997E-3</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D7" s="1">
         <v>6.8771609999999997E-3</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E7" s="1">
         <v>6.8771609999999997E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="1">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1">
         <v>1.7500000000000003E-3</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C8" s="1">
         <v>1.7500000000000003E-3</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D8" s="1">
         <v>1.7500000000000003E-3</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E8" s="1">
         <v>1.7500000000000003E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="1">
-        <v>1E-3</v>
-      </c>
-      <c r="C8" s="1">
-        <v>1E-3</v>
-      </c>
-      <c r="D8" s="1">
-        <v>1E-3</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1E-3</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1378,16 +1378,16 @@
         <v>11</v>
       </c>
       <c r="B9" s="1">
-        <v>2.5999999999999999E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="C9" s="1">
-        <v>2.5999999999999999E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="D9" s="1">
-        <v>2.5999999999999999E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="E9" s="1">
-        <v>2.5999999999999999E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1395,16 +1395,16 @@
         <v>12</v>
       </c>
       <c r="B10" s="1">
-        <v>1.32E-3</v>
+        <v>2.5999999999999999E-3</v>
       </c>
       <c r="C10" s="1">
-        <v>1.32E-3</v>
+        <v>2.5999999999999999E-3</v>
       </c>
       <c r="D10" s="1">
-        <v>1.32E-3</v>
+        <v>2.5999999999999999E-3</v>
       </c>
       <c r="E10" s="1">
-        <v>1.32E-3</v>
+        <v>2.5999999999999999E-3</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1412,16 +1412,16 @@
         <v>13</v>
       </c>
       <c r="B11" s="1">
-        <v>2.3759999999999996E-3</v>
+        <v>1.32E-3</v>
       </c>
       <c r="C11" s="1">
-        <v>2.3759999999999996E-3</v>
+        <v>1.32E-3</v>
       </c>
       <c r="D11" s="1">
-        <v>2.3759999999999996E-3</v>
+        <v>1.32E-3</v>
       </c>
       <c r="E11" s="1">
-        <v>2.3759999999999996E-3</v>
+        <v>1.32E-3</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1429,16 +1429,16 @@
         <v>14</v>
       </c>
       <c r="B12" s="1">
-        <v>5.5E-2</v>
+        <v>2.3759999999999996E-3</v>
       </c>
       <c r="C12" s="1">
-        <v>5.5E-2</v>
+        <v>2.3759999999999996E-3</v>
       </c>
       <c r="D12" s="1">
-        <v>5.5E-2</v>
+        <v>2.3759999999999996E-3</v>
       </c>
       <c r="E12" s="1">
-        <v>5.5E-2</v>
+        <v>2.3759999999999996E-3</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1716,15 +1716,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="ba5b49d0-d563-40a1-b879-461d939a825e" xsi:nil="true"/>
@@ -1733,6 +1724,15 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1755,14 +1755,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9DF8D6F7-3128-485C-92B3-D60ACB5ABA41}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1BF92100-C8F1-4100-8F3F-2B7D91B37A12}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -1771,4 +1763,12 @@
     <ds:schemaRef ds:uri="b7f5957c-7da5-4c27-85eb-7459e8edadbc"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9DF8D6F7-3128-485C-92B3-D60ACB5ABA41}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>